--- a/src/Sorce/balanceZP.xlsx
+++ b/src/Sorce/balanceZP.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/SharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="364">
   <si>
     <t>Формирвоание отчета</t>
   </si>
   <si>
-    <t>Период: на 17.01.2025 10:45:10</t>
+    <t>Период: на 20.01.2025 10:55:10</t>
   </si>
   <si>
     <t>Показатели: Свободный остаток(В ед. хранения);</t>
@@ -260,6 +260,12 @@
     <t>РУЛЕТ Золотий ключик ВКФ 180г /14шт АКЦІЯ</t>
   </si>
   <si>
+    <t>РУЛЕТ П'янка вишня ВКФ 180г /14шт</t>
+  </si>
+  <si>
+    <t>РУЛЕТ Празький ВКФ 180г /14шт</t>
+  </si>
+  <si>
     <t>Тістечка Too Cool Choco Fest ВКФ 270г /12шт</t>
   </si>
   <si>
@@ -278,12 +284,18 @@
     <t>Konafetto cocoa з начинкою крем-какао ВКФ 140г /15шт</t>
   </si>
   <si>
+    <t>Konafetto з горіховою начинкою ВКФ 140г /15шт</t>
+  </si>
+  <si>
     <t>KONAFETTO з горіховою начинкою ВКФ 140г /15шт АКЦІЯ</t>
   </si>
   <si>
     <t>Konafetto з кокосовою начинкою ВКФ 140г /15шт</t>
   </si>
   <si>
+    <t>Konafetto з молочною начинкою ВКФ 140г /15шт</t>
+  </si>
+  <si>
     <t>Roshetto dark ВКФ 34г /200шт</t>
   </si>
   <si>
@@ -311,6 +323,12 @@
     <t>Wafers Sandwich Crunch какао ККФ 142г /15шт /</t>
   </si>
   <si>
+    <t>Wafers Sandwich Crunch лимон ККФ 142г /15шт /</t>
+  </si>
+  <si>
+    <t>Wafers Sandwich Crunch полуниця ККФ 142г /15шт /</t>
+  </si>
+  <si>
     <t>Wafers горіх ВКФ 216г /16шт</t>
   </si>
   <si>
@@ -320,18 +338,27 @@
     <t>Wafers горіх ККФ 216г /16шт</t>
   </si>
   <si>
+    <t>Wafers какао ВКФ 72г /22шт AR /</t>
+  </si>
+  <si>
     <t>Wafers какао ККФ 216г /16шт</t>
   </si>
   <si>
     <t>Wafers какао-молоко ККФ 216г /16шт</t>
   </si>
   <si>
+    <t>Wafers кокос та мигдаль ВКФ 216г /16шт</t>
+  </si>
+  <si>
     <t>Wafers лимон ВКФ 216г /16шт</t>
   </si>
   <si>
     <t>Wafers лимон ВКФ 72г /22шт AR /</t>
   </si>
   <si>
+    <t>Wafers молоко ВКФ 72г /22шт AR /</t>
+  </si>
+  <si>
     <t>Wafers молоко ВКФ 72г /22шт AR /АКЦІЯ</t>
   </si>
   <si>
@@ -374,12 +401,21 @@
     <t>Mintex+ зі смаком м'яти ВКФ 140г /15шт</t>
   </si>
   <si>
+    <t>Yummi Gummi Banana Land ВКФ 70г /22шт</t>
+  </si>
+  <si>
     <t>Yummi Gummi Banana Land ВКФ 70г /22шт АКЦІЯ</t>
   </si>
   <si>
     <t>Yummi Gummi Carrot Farm ВКФ 70г /22шт АКЦІЯ</t>
   </si>
   <si>
+    <t>Yummi Gummi Carrots ВКФ 70г /22шт</t>
+  </si>
+  <si>
+    <t>Yummi Gummi Cheesecakes ВКФ 70г /22шт</t>
+  </si>
+  <si>
     <t>Yummi Gummi Cheesecakes ВКФ 70г /22шт АКЦІЯ</t>
   </si>
   <si>
@@ -389,48 +425,93 @@
     <t>Yummi Gummi Cherry ВКФ 70г /22шт АКЦІЯ</t>
   </si>
   <si>
+    <t>Yummi Gummi CupCakes ВКФ 70г /22шт</t>
+  </si>
+  <si>
     <t>Yummi Gummi CupCakes ВКФ 70г /22шт АКЦІЯ</t>
   </si>
   <si>
+    <t>Yummi Gummi Donuts ВКФ 70г /22шт</t>
+  </si>
+  <si>
     <t>Yummi Gummi Donuts ВКФ 70г /22шт АКЦІЯ</t>
   </si>
   <si>
+    <t>Yummi Gummi Duo Mix ВКФ 70г /22шт</t>
+  </si>
+  <si>
     <t>Yummi Gummi Duo Mix ВКФ 70г /22шт АКЦІЯ</t>
   </si>
   <si>
+    <t>Yummi Gummi Fizzy Worms ВКФ 70г /22шт</t>
+  </si>
+  <si>
     <t>Yummi Gummi Fizzy Worms ВКФ 70г /22шт АКЦІЯ</t>
   </si>
   <si>
+    <t>Yummi Gummi Frozen Yogo ВКФ 70г /22шт</t>
+  </si>
+  <si>
     <t>Yummi Gummi Frozen Yogo ВКФ 70г /22шт АКЦІЯ</t>
   </si>
   <si>
+    <t>Yummi Gummi Funny Cola ВКФ 70г /22шт</t>
+  </si>
+  <si>
     <t>Yummi Gummi Funny Cola ВКФ 70г /22шт АКЦІЯ</t>
   </si>
   <si>
+    <t>Yummi Gummi Galaxy Life ВКФ 70г /22шт</t>
+  </si>
+  <si>
     <t>Yummi Gummi Galaxy Life ВКФ 70г /22шт АКЦІЯ</t>
   </si>
   <si>
+    <t>Yummi Gummi Mini Bear Mix ВКФ 70г /22шт</t>
+  </si>
+  <si>
     <t>Yummi Gummi Mini Bear Mix ВКФ 70г /22шт АКЦІЯ</t>
   </si>
   <si>
+    <t>Yummi Gummi Pasta ВКФ 70г /22шт</t>
+  </si>
+  <si>
     <t>Yummi Gummi Pasta ВКФ 70г /22шт АКЦІЯ</t>
   </si>
   <si>
+    <t>Yummi Gummi Smile Mix ВКФ 70г /22шт</t>
+  </si>
+  <si>
     <t>Yummi Gummi Smile Mix ВКФ 70г /22шт АКЦІЯ</t>
   </si>
   <si>
+    <t>Yummi Gummi Sour Belts ВКФ 70г /40шт</t>
+  </si>
+  <si>
     <t>Yummi Gummi Sour Belts ВКФ 70г /40шт АКЦІЯ</t>
   </si>
   <si>
+    <t>Yummi Gummi Sour Sticks ВКФ 70г /40шт</t>
+  </si>
+  <si>
     <t>Yummi Gummi Sour Sticks ВКФ 70г /40шт АКЦІЯ</t>
   </si>
   <si>
+    <t>Yummi Gummi Sour Strawberries ВКФ 70г /22шт</t>
+  </si>
+  <si>
     <t>Yummi Gummi Sour Strawberries ВКФ 70г /22шт АКЦІЯ</t>
   </si>
   <si>
+    <t>Yummi Gummi Twists ВКФ 70г /40шт</t>
+  </si>
+  <si>
     <t>Yummi Gummi Twists ВКФ 70г /40шт АКЦІЯ</t>
   </si>
   <si>
+    <t>Yummi Gummi Watermelon Slices ВКФ 70г /22шт</t>
+  </si>
+  <si>
     <t>Yummi Gummi Watermelon Slices ВКФ 70г /22шт АКЦІЯ</t>
   </si>
   <si>
@@ -611,6 +692,12 @@
     <t>Lovita Classic Cookies арахіс ККФ 150г /16шт</t>
   </si>
   <si>
+    <t>Lovita Classic Cookies з какао і кусочками глазурі ККФ 150г /16шт</t>
+  </si>
+  <si>
+    <t>Lovita Classic Cookies з кусочками глазурі ВКФ 150г /16шт</t>
+  </si>
+  <si>
     <t>Lovita Classic Cookies з кусочками глазурі ВКФ 150г /16шт АКЦІЯ</t>
   </si>
   <si>
@@ -632,12 +719,21 @@
     <t>Lovita Jelly Cookies з желейною начинкою зі смаком малини ККФ 420г /7шт</t>
   </si>
   <si>
+    <t>Lovita Jelly Cookies з желейною начинкою зі смаком полуниці ККФ 135г /21шт /</t>
+  </si>
+  <si>
     <t>Lovita Jelly Cookies з желейною начинкою зі смаком полуниці ККФ 135г /21шт /АКЦІЯ</t>
   </si>
   <si>
     <t>Lovita Jelly Cookies з желейною начинкою зі смаком полуниці ККФ 420г /7шт</t>
   </si>
   <si>
+    <t>Lovita Soft Cream Cookies cocoa ККФ 127г /18шт</t>
+  </si>
+  <si>
+    <t>Lovita Soft Cream Cookies hazelnut ККФ 127г /18шт</t>
+  </si>
+  <si>
     <t>Lovita Soft Cream Cookies hazelnut ККФ 127г /18шт АКЦІЯ</t>
   </si>
   <si>
@@ -656,6 +752,9 @@
     <t>Multicake з начинкою какао 180г/28</t>
   </si>
   <si>
+    <t>Multicake з начинкою какао ККФ 180г /28шт UA FP</t>
+  </si>
+  <si>
     <t>Multicake з начинкою полуниця-крем ККФ 180г /28шт</t>
   </si>
   <si>
@@ -665,6 +764,9 @@
     <t>Multicake з начинкою чорниця-крем ККФ 180г /28шт</t>
   </si>
   <si>
+    <t>До кави масло-ваніль ВКФ 185г /28шт /</t>
+  </si>
+  <si>
     <t>До кави пряжене молоко ВКФ 185г /28шт /</t>
   </si>
   <si>
@@ -965,6 +1067,9 @@
     <t>Roshen пористий білий карамельний ВКФ 80г /20шт FP АКЦІЯ Цінова UA</t>
   </si>
   <si>
+    <t>Roshen пористий білий карамельний ВКФ 80г /20шт UA</t>
+  </si>
+  <si>
     <t>Roshen пористий білий карамельний ВКФ 80г /20шт UA АКЦІЯ ОПТ</t>
   </si>
   <si>
@@ -996,6 +1101,9 @@
   </si>
   <si>
     <t>Roshen чорний Special 56% ВКФ 85г /35шт /</t>
+  </si>
+  <si>
+    <t>Roshen чорний з підсоленим подрібн. мигдалем ВКФ 85г /35шт /</t>
   </si>
   <si>
     <t>TIDBIT з начинкою зі смаком "Вишневий Брауні" ВКФ 50г /28шт</t>
@@ -1247,7 +1355,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false"/>
   </sheetPr>
-  <dimension ref="C328"/>
+  <dimension ref="C364"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1315,7 +1423,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="11" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="11" customHeight="true">
@@ -1323,7 +1431,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>216736</v>
+        <v>193520</v>
       </c>
     </row>
     <row r="13" ht="11" customHeight="true" outlineLevel="1">
@@ -1331,7 +1439,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>29534</v>
+        <v>20332</v>
       </c>
     </row>
     <row r="14" ht="11" customHeight="true" outlineLevel="2">
@@ -1339,7 +1447,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>2185</v>
+        <v>-2113</v>
       </c>
     </row>
     <row r="15" ht="11" customHeight="true" outlineLevel="3">
@@ -1347,7 +1455,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="11" t="n">
-        <v>499</v>
+        <v>-656</v>
       </c>
     </row>
     <row r="16" ht="11" customHeight="true" outlineLevel="3">
@@ -1355,7 +1463,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="11" t="n">
-        <v>90</v>
+        <v>-784</v>
       </c>
     </row>
     <row r="17" ht="11" customHeight="true" outlineLevel="3">
@@ -1363,7 +1471,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="11" t="n">
-        <v>448</v>
+        <v>-880</v>
       </c>
     </row>
     <row r="18" ht="11" customHeight="true" outlineLevel="3">
@@ -1371,7 +1479,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="11" t="n">
-        <v>216</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" ht="11" customHeight="true" outlineLevel="3">
@@ -1379,7 +1487,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="11" t="n">
-        <v>448</v>
+        <v>-351</v>
       </c>
     </row>
     <row r="20" ht="11" customHeight="true" outlineLevel="3">
@@ -1387,7 +1495,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="11" t="n">
-        <v>484</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" ht="11" customHeight="true" outlineLevel="2">
@@ -1395,7 +1503,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="12" t="n">
-        <v>9435</v>
+        <v>5796</v>
       </c>
     </row>
     <row r="22" ht="11" customHeight="true" outlineLevel="3">
@@ -1403,7 +1511,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="16" t="n">
-        <v>3701</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="23" ht="11" customHeight="true" outlineLevel="3">
@@ -1411,7 +1519,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="16" t="n">
-        <v>3340</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="24" ht="11" customHeight="true" outlineLevel="3">
@@ -1426,8 +1534,8 @@
       <c r="B25" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="16" t="n">
-        <v>1370</v>
+      <c r="C25" s="11" t="n">
+        <v>-926</v>
       </c>
     </row>
     <row r="26" ht="11" customHeight="true" outlineLevel="3">
@@ -1435,7 +1543,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="11" t="n">
-        <v>527</v>
+        <v>512</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="true" outlineLevel="3">
@@ -1443,7 +1551,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="11" t="n">
-        <v>275</v>
+        <v>-275</v>
       </c>
     </row>
     <row r="28" ht="11" customHeight="true" outlineLevel="2">
@@ -1451,7 +1559,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="12" t="n">
-        <v>7036</v>
+        <v>6951</v>
       </c>
     </row>
     <row r="29" ht="11" customHeight="true" outlineLevel="3">
@@ -1459,7 +1567,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="11" t="n">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" ht="11" customHeight="true" outlineLevel="3">
@@ -1475,7 +1583,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="16" t="n">
-        <v>1262</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="32" ht="11" customHeight="true" outlineLevel="3">
@@ -1483,7 +1591,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="11" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" ht="11" customHeight="true" outlineLevel="3">
@@ -1491,7 +1599,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="11" t="n">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" ht="11" customHeight="true" outlineLevel="3">
@@ -1499,7 +1607,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="16" t="n">
-        <v>2353</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="35" ht="11" customHeight="true" outlineLevel="3">
@@ -1515,7 +1623,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="11" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" ht="11" customHeight="true" outlineLevel="3">
@@ -1531,7 +1639,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="11" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" ht="11" customHeight="true" outlineLevel="3">
@@ -1539,7 +1647,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="11" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" ht="11" customHeight="true" outlineLevel="3">
@@ -1547,7 +1655,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="11" t="n">
-        <v>925</v>
+        <v>915</v>
       </c>
     </row>
     <row r="41" ht="11" customHeight="true" outlineLevel="3">
@@ -1555,7 +1663,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="11" t="n">
-        <v>416</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42" ht="11" customHeight="true" outlineLevel="2">
@@ -1563,7 +1671,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="12" t="n">
-        <v>10878</v>
+        <v>9698</v>
       </c>
     </row>
     <row r="43" ht="11" customHeight="true" outlineLevel="3">
@@ -1587,7 +1695,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="11" t="n">
-        <v>516</v>
+        <v>501</v>
       </c>
     </row>
     <row r="46" ht="11" customHeight="true" outlineLevel="3">
@@ -1595,7 +1703,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="11" t="n">
-        <v>353</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47" ht="11" customHeight="true" outlineLevel="3">
@@ -1603,7 +1711,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="16" t="n">
-        <v>1745</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="48" ht="11" customHeight="true" outlineLevel="3">
@@ -1611,7 +1719,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="11" t="n">
-        <v>208</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" ht="11" customHeight="true" outlineLevel="3">
@@ -1619,7 +1727,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="11" t="n">
-        <v>128</v>
+        <v>-385</v>
       </c>
     </row>
     <row r="50" ht="11" customHeight="true" outlineLevel="3">
@@ -1627,7 +1735,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="11" t="n">
-        <v>205</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="51" ht="11" customHeight="true" outlineLevel="3">
@@ -1643,7 +1751,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="16" t="n">
-        <v>2121</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="53" ht="11" customHeight="true" outlineLevel="3">
@@ -1659,7 +1767,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="16" t="n">
-        <v>3778</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="55" ht="11" customHeight="true" outlineLevel="3">
@@ -1667,7 +1775,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="11" t="n">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" ht="11" customHeight="true" outlineLevel="3">
@@ -1675,7 +1783,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="11" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" ht="11" customHeight="true" outlineLevel="1">
@@ -1683,7 +1791,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="12" t="n">
-        <v>187202</v>
+        <v>173188</v>
       </c>
     </row>
     <row r="58" ht="11" customHeight="true" outlineLevel="2">
@@ -1691,7 +1799,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="12" t="n">
-        <v>68600</v>
+        <v>66920</v>
       </c>
     </row>
     <row r="59" ht="22" customHeight="true" outlineLevel="3">
@@ -1699,7 +1807,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="16" t="n">
-        <v>3655</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="60" ht="22" customHeight="true" outlineLevel="3">
@@ -1707,7 +1815,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="16" t="n">
-        <v>1470</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="61" ht="22" customHeight="true" outlineLevel="3">
@@ -1723,7 +1831,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="16" t="n">
-        <v>7716</v>
+        <v>7386</v>
       </c>
     </row>
     <row r="63" ht="11" customHeight="true" outlineLevel="3">
@@ -1731,7 +1839,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="11" t="n">
-        <v>654</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" ht="22" customHeight="true" outlineLevel="3">
@@ -1746,8 +1854,8 @@
       <c r="B65" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="16" t="n">
-        <v>1064</v>
+      <c r="C65" s="11" t="n">
+        <v>704</v>
       </c>
     </row>
     <row r="66" ht="11" customHeight="true" outlineLevel="3">
@@ -1755,7 +1863,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="16" t="n">
-        <v>6876</v>
+        <v>7596</v>
       </c>
     </row>
     <row r="67" ht="22" customHeight="true" outlineLevel="3">
@@ -1763,7 +1871,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="16" t="n">
-        <v>1230</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="68" ht="22" customHeight="true" outlineLevel="3">
@@ -1771,7 +1879,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="16" t="n">
-        <v>1667</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="69" ht="22" customHeight="true" outlineLevel="3">
@@ -1779,7 +1887,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="16" t="n">
-        <v>22982</v>
+        <v>22802</v>
       </c>
     </row>
     <row r="70" ht="22" customHeight="true" outlineLevel="3">
@@ -1787,15 +1895,15 @@
         <v>69</v>
       </c>
       <c r="C70" s="16" t="n">
-        <v>2132</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="71" ht="22" customHeight="true" outlineLevel="3">
       <c r="B71" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="16" t="n">
-        <v>1231</v>
+      <c r="C71" s="11" t="n">
+        <v>691</v>
       </c>
     </row>
     <row r="72" ht="11" customHeight="true" outlineLevel="3">
@@ -1803,7 +1911,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="16" t="n">
-        <v>3676</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="73" ht="11" customHeight="true" outlineLevel="3">
@@ -1811,7 +1919,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="16" t="n">
-        <v>9137</v>
+        <v>8987</v>
       </c>
     </row>
     <row r="74" ht="11" customHeight="true" outlineLevel="2">
@@ -1819,7 +1927,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="12" t="n">
-        <v>2163</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="75" ht="11" customHeight="true" outlineLevel="3">
@@ -1827,7 +1935,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="11" t="n">
-        <v>358</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" ht="11" customHeight="true" outlineLevel="3">
@@ -1843,7 +1951,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="11" t="n">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" ht="11" customHeight="true" outlineLevel="3">
@@ -1851,7 +1959,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="11" t="n">
-        <v>178</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" ht="11" customHeight="true" outlineLevel="3">
@@ -1859,7 +1967,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="11" t="n">
-        <v>830</v>
+        <v>803</v>
       </c>
     </row>
     <row r="80" ht="11" customHeight="true" outlineLevel="3">
@@ -1867,7 +1975,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="11" t="n">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" ht="11" customHeight="true" outlineLevel="3">
@@ -1875,7 +1983,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="11" t="n">
-        <v>42</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" ht="11" customHeight="true" outlineLevel="3">
@@ -1883,7 +1991,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="11" t="n">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" ht="11" customHeight="true" outlineLevel="3">
@@ -1891,39 +1999,39 @@
         <v>82</v>
       </c>
       <c r="C83" s="11" t="n">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="84" ht="22" customHeight="true" outlineLevel="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" ht="11" customHeight="true" outlineLevel="3">
       <c r="B84" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C84" s="11" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B85" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B85" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="12" t="n">
-        <v>9575</v>
-      </c>
-    </row>
-    <row r="86" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C85" s="11" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="86" ht="22" customHeight="true" outlineLevel="3">
       <c r="B86" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C86" s="11" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="87" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B87" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B87" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C87" s="11" t="n">
-        <v>35</v>
+      <c r="C87" s="12" t="n">
+        <v>7244</v>
       </c>
     </row>
     <row r="88" ht="11" customHeight="true" outlineLevel="3">
@@ -1931,39 +2039,39 @@
         <v>87</v>
       </c>
       <c r="C88" s="11" t="n">
-        <v>244</v>
+        <v>-85</v>
       </c>
     </row>
     <row r="89" ht="11" customHeight="true" outlineLevel="3">
       <c r="B89" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C89" s="16" t="n">
-        <v>1048</v>
+      <c r="C89" s="11" t="n">
+        <v>-75</v>
       </c>
     </row>
     <row r="90" ht="11" customHeight="true" outlineLevel="3">
       <c r="B90" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C90" s="16" t="n">
-        <v>1675</v>
+      <c r="C90" s="11" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="91" ht="11" customHeight="true" outlineLevel="3">
       <c r="B91" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C91" s="16" t="n">
-        <v>1139</v>
+      <c r="C91" s="11" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="92" ht="11" customHeight="true" outlineLevel="3">
       <c r="B92" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C92" s="16" t="n">
-        <v>1800</v>
+      <c r="C92" s="11" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="93" ht="11" customHeight="true" outlineLevel="3">
@@ -1971,15 +2079,15 @@
         <v>92</v>
       </c>
       <c r="C93" s="11" t="n">
-        <v>875</v>
+        <v>-92</v>
       </c>
     </row>
     <row r="94" ht="11" customHeight="true" outlineLevel="3">
       <c r="B94" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C94" s="11" t="n">
-        <v>76</v>
+      <c r="C94" s="16" t="n">
+        <v>1625</v>
       </c>
     </row>
     <row r="95" ht="11" customHeight="true" outlineLevel="3">
@@ -1987,15 +2095,15 @@
         <v>94</v>
       </c>
       <c r="C95" s="11" t="n">
-        <v>35</v>
+        <v>919</v>
       </c>
     </row>
     <row r="96" ht="11" customHeight="true" outlineLevel="3">
       <c r="B96" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C96" s="11" t="n">
-        <v>37</v>
+      <c r="C96" s="16" t="n">
+        <v>1750</v>
       </c>
     </row>
     <row r="97" ht="11" customHeight="true" outlineLevel="3">
@@ -2003,7 +2111,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="11" t="n">
-        <v>9</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" ht="11" customHeight="true" outlineLevel="3">
@@ -2011,7 +2119,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="11" t="n">
-        <v>307</v>
+        <v>-74</v>
       </c>
     </row>
     <row r="99" ht="11" customHeight="true" outlineLevel="3">
@@ -2019,7 +2127,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="11" t="n">
-        <v>483</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" ht="11" customHeight="true" outlineLevel="3">
@@ -2027,7 +2135,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="11" t="n">
-        <v>40</v>
+        <v>-264</v>
       </c>
     </row>
     <row r="101" ht="11" customHeight="true" outlineLevel="3">
@@ -2035,7 +2143,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="11" t="n">
-        <v>157</v>
+        <v>-179</v>
       </c>
     </row>
     <row r="102" ht="11" customHeight="true" outlineLevel="3">
@@ -2043,7 +2151,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="11" t="n">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" ht="11" customHeight="true" outlineLevel="3">
@@ -2051,7 +2159,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="11" t="n">
-        <v>216</v>
+        <v>-143</v>
       </c>
     </row>
     <row r="104" ht="11" customHeight="true" outlineLevel="3">
@@ -2059,7 +2167,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="11" t="n">
-        <v>88</v>
+        <v>297</v>
       </c>
     </row>
     <row r="105" ht="11" customHeight="true" outlineLevel="3">
@@ -2067,7 +2175,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="11" t="n">
-        <v>35</v>
+        <v>485</v>
       </c>
     </row>
     <row r="106" ht="11" customHeight="true" outlineLevel="3">
@@ -2075,7 +2183,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="11" t="n">
-        <v>169</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" ht="11" customHeight="true" outlineLevel="3">
@@ -2083,7 +2191,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="11" t="n">
-        <v>443</v>
+        <v>227</v>
       </c>
     </row>
     <row r="108" ht="11" customHeight="true" outlineLevel="3">
@@ -2091,15 +2199,15 @@
         <v>107</v>
       </c>
       <c r="C108" s="11" t="n">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="109" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B109" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="109" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B109" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C109" s="12" t="n">
-        <v>13364</v>
+      <c r="C109" s="11" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="110" ht="11" customHeight="true" outlineLevel="3">
@@ -2107,7 +2215,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="11" t="n">
-        <v>114</v>
+        <v>376</v>
       </c>
     </row>
     <row r="111" ht="11" customHeight="true" outlineLevel="3">
@@ -2115,7 +2223,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="11" t="n">
-        <v>141</v>
+        <v>216</v>
       </c>
     </row>
     <row r="112" ht="11" customHeight="true" outlineLevel="3">
@@ -2123,7 +2231,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="11" t="n">
-        <v>52</v>
+        <v>83</v>
       </c>
     </row>
     <row r="113" ht="11" customHeight="true" outlineLevel="3">
@@ -2131,7 +2239,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="11" t="n">
-        <v>90</v>
+        <v>230</v>
       </c>
     </row>
     <row r="114" ht="11" customHeight="true" outlineLevel="3">
@@ -2139,7 +2247,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="11" t="n">
-        <v>125</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" ht="11" customHeight="true" outlineLevel="3">
@@ -2147,7 +2255,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="11" t="n">
-        <v>11</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116" ht="11" customHeight="true" outlineLevel="3">
@@ -2155,7 +2263,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="11" t="n">
-        <v>126</v>
+        <v>409</v>
       </c>
     </row>
     <row r="117" ht="11" customHeight="true" outlineLevel="3">
@@ -2163,15 +2271,15 @@
         <v>116</v>
       </c>
       <c r="C117" s="11" t="n">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="118" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B118" s="15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="118" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B118" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C118" s="11" t="n">
-        <v>425</v>
+      <c r="C118" s="12" t="n">
+        <v>14125</v>
       </c>
     </row>
     <row r="119" ht="11" customHeight="true" outlineLevel="3">
@@ -2179,7 +2287,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="11" t="n">
-        <v>884</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120" ht="11" customHeight="true" outlineLevel="3">
@@ -2187,7 +2295,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="11" t="n">
-        <v>884</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" ht="11" customHeight="true" outlineLevel="3">
@@ -2195,7 +2303,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="11" t="n">
-        <v>740</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122" ht="11" customHeight="true" outlineLevel="3">
@@ -2203,7 +2311,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="11" t="n">
-        <v>264</v>
+        <v>84</v>
       </c>
     </row>
     <row r="123" ht="11" customHeight="true" outlineLevel="3">
@@ -2211,7 +2319,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="11" t="n">
-        <v>740</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" ht="11" customHeight="true" outlineLevel="3">
@@ -2219,7 +2327,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="11" t="n">
-        <v>288</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" ht="11" customHeight="true" outlineLevel="3">
@@ -2227,7 +2335,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="11" t="n">
-        <v>432</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" ht="11" customHeight="true" outlineLevel="3">
@@ -2235,7 +2343,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="11" t="n">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="127" ht="11" customHeight="true" outlineLevel="3">
@@ -2243,7 +2351,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="11" t="n">
-        <v>884</v>
+        <v>425</v>
       </c>
     </row>
     <row r="128" ht="11" customHeight="true" outlineLevel="3">
@@ -2251,7 +2359,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="11" t="n">
-        <v>288</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" ht="11" customHeight="true" outlineLevel="3">
@@ -2259,7 +2367,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="11" t="n">
-        <v>884</v>
+        <v>832</v>
       </c>
     </row>
     <row r="130" ht="11" customHeight="true" outlineLevel="3">
@@ -2267,7 +2375,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="11" t="n">
-        <v>288</v>
+        <v>832</v>
       </c>
     </row>
     <row r="131" ht="11" customHeight="true" outlineLevel="3">
@@ -2275,7 +2383,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="11" t="n">
-        <v>884</v>
+        <v>38</v>
       </c>
     </row>
     <row r="132" ht="11" customHeight="true" outlineLevel="3">
@@ -2283,7 +2391,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="11" t="n">
-        <v>432</v>
+        <v>268</v>
       </c>
     </row>
     <row r="133" ht="11" customHeight="true" outlineLevel="3">
@@ -2291,7 +2399,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="11" t="n">
-        <v>288</v>
+        <v>695</v>
       </c>
     </row>
     <row r="134" ht="11" customHeight="true" outlineLevel="3">
@@ -2299,7 +2407,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="11" t="n">
-        <v>884</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="135" ht="11" customHeight="true" outlineLevel="3">
@@ -2307,7 +2415,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="11" t="n">
-        <v>432</v>
+        <v>695</v>
       </c>
     </row>
     <row r="136" ht="11" customHeight="true" outlineLevel="3">
@@ -2315,7 +2423,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="11" t="n">
-        <v>884</v>
+        <v>171</v>
       </c>
     </row>
     <row r="137" ht="11" customHeight="true" outlineLevel="3">
@@ -2323,7 +2431,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="11" t="n">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="138" ht="11" customHeight="true" outlineLevel="3">
@@ -2331,7 +2439,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="11" t="n">
-        <v>740</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="139" ht="11" customHeight="true" outlineLevel="3">
@@ -2339,7 +2447,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="11" t="n">
-        <v>25</v>
+        <v>411</v>
       </c>
     </row>
     <row r="140" ht="11" customHeight="true" outlineLevel="3">
@@ -2347,7 +2455,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="11" t="n">
-        <v>54</v>
+        <v>260</v>
       </c>
     </row>
     <row r="141" ht="11" customHeight="true" outlineLevel="3">
@@ -2355,7 +2463,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="11" t="n">
-        <v>11</v>
+        <v>274</v>
       </c>
     </row>
     <row r="142" ht="11" customHeight="true" outlineLevel="3">
@@ -2363,7 +2471,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="11" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" ht="11" customHeight="true" outlineLevel="3">
@@ -2371,7 +2479,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="11" t="n">
-        <v>54</v>
+        <v>832</v>
       </c>
     </row>
     <row r="144" ht="11" customHeight="true" outlineLevel="3">
@@ -2379,15 +2487,15 @@
         <v>143</v>
       </c>
       <c r="C144" s="11" t="n">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="145" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B145" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="145" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B145" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C145" s="12" t="n">
-        <v>8769</v>
+      <c r="C145" s="11" t="n">
+        <v>274</v>
       </c>
     </row>
     <row r="146" ht="11" customHeight="true" outlineLevel="3">
@@ -2395,7 +2503,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="11" t="n">
-        <v>232</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" ht="11" customHeight="true" outlineLevel="3">
@@ -2403,7 +2511,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="11" t="n">
-        <v>406</v>
+        <v>832</v>
       </c>
     </row>
     <row r="148" ht="11" customHeight="true" outlineLevel="3">
@@ -2411,7 +2519,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="11" t="n">
-        <v>288</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="149" ht="11" customHeight="true" outlineLevel="3">
@@ -2419,7 +2527,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="11" t="n">
-        <v>644</v>
+        <v>274</v>
       </c>
     </row>
     <row r="150" ht="11" customHeight="true" outlineLevel="3">
@@ -2427,7 +2535,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="11" t="n">
-        <v>22</v>
+        <v>385</v>
       </c>
     </row>
     <row r="151" ht="11" customHeight="true" outlineLevel="3">
@@ -2435,7 +2543,7 @@
         <v>150</v>
       </c>
       <c r="C151" s="11" t="n">
-        <v>105</v>
+        <v>832</v>
       </c>
     </row>
     <row r="152" ht="11" customHeight="true" outlineLevel="3">
@@ -2443,7 +2551,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="11" t="n">
-        <v>86</v>
+        <v>-109</v>
       </c>
     </row>
     <row r="153" ht="11" customHeight="true" outlineLevel="3">
@@ -2451,7 +2559,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="11" t="n">
-        <v>275</v>
+        <v>411</v>
       </c>
     </row>
     <row r="154" ht="11" customHeight="true" outlineLevel="3">
@@ -2459,7 +2567,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="11" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
     </row>
     <row r="155" ht="11" customHeight="true" outlineLevel="3">
@@ -2467,7 +2575,7 @@
         <v>154</v>
       </c>
       <c r="C155" s="11" t="n">
-        <v>178</v>
+        <v>274</v>
       </c>
     </row>
     <row r="156" ht="11" customHeight="true" outlineLevel="3">
@@ -2475,7 +2583,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="11" t="n">
-        <v>74</v>
+        <v>-130</v>
       </c>
     </row>
     <row r="157" ht="11" customHeight="true" outlineLevel="3">
@@ -2483,7 +2591,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="11" t="n">
-        <v>476</v>
+        <v>832</v>
       </c>
     </row>
     <row r="158" ht="11" customHeight="true" outlineLevel="3">
@@ -2491,7 +2599,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="11" t="n">
-        <v>452</v>
+        <v>275</v>
       </c>
     </row>
     <row r="159" ht="11" customHeight="true" outlineLevel="3">
@@ -2499,7 +2607,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="11" t="n">
-        <v>284</v>
+        <v>411</v>
       </c>
     </row>
     <row r="160" ht="11" customHeight="true" outlineLevel="3">
@@ -2507,7 +2615,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="11" t="n">
-        <v>123</v>
+        <v>819</v>
       </c>
     </row>
     <row r="161" ht="11" customHeight="true" outlineLevel="3">
@@ -2515,7 +2623,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="11" t="n">
-        <v>422</v>
+        <v>832</v>
       </c>
     </row>
     <row r="162" ht="11" customHeight="true" outlineLevel="3">
@@ -2523,7 +2631,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="11" t="n">
-        <v>181</v>
+        <v>100</v>
       </c>
     </row>
     <row r="163" ht="11" customHeight="true" outlineLevel="3">
@@ -2531,7 +2639,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="11" t="n">
-        <v>21</v>
+        <v>274</v>
       </c>
     </row>
     <row r="164" ht="11" customHeight="true" outlineLevel="3">
@@ -2539,7 +2647,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="11" t="n">
-        <v>102</v>
+        <v>215</v>
       </c>
     </row>
     <row r="165" ht="11" customHeight="true" outlineLevel="3">
@@ -2547,7 +2655,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="11" t="n">
-        <v>168</v>
+        <v>695</v>
       </c>
     </row>
     <row r="166" ht="11" customHeight="true" outlineLevel="3">
@@ -2555,7 +2663,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="11" t="n">
-        <v>457</v>
+        <v>25</v>
       </c>
     </row>
     <row r="167" ht="11" customHeight="true" outlineLevel="3">
@@ -2563,7 +2671,7 @@
         <v>166</v>
       </c>
       <c r="C167" s="11" t="n">
-        <v>444</v>
+        <v>54</v>
       </c>
     </row>
     <row r="168" ht="11" customHeight="true" outlineLevel="3">
@@ -2571,7 +2679,7 @@
         <v>167</v>
       </c>
       <c r="C168" s="11" t="n">
-        <v>405</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" ht="11" customHeight="true" outlineLevel="3">
@@ -2579,7 +2687,7 @@
         <v>168</v>
       </c>
       <c r="C169" s="11" t="n">
-        <v>558</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170" ht="11" customHeight="true" outlineLevel="3">
@@ -2587,7 +2695,7 @@
         <v>169</v>
       </c>
       <c r="C170" s="11" t="n">
-        <v>332</v>
+        <v>60</v>
       </c>
     </row>
     <row r="171" ht="11" customHeight="true" outlineLevel="3">
@@ -2595,15 +2703,15 @@
         <v>170</v>
       </c>
       <c r="C171" s="11" t="n">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="172" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B172" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="172" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B172" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C172" s="11" t="n">
-        <v>476</v>
+      <c r="C172" s="12" t="n">
+        <v>7151</v>
       </c>
     </row>
     <row r="173" ht="11" customHeight="true" outlineLevel="3">
@@ -2611,7 +2719,7 @@
         <v>172</v>
       </c>
       <c r="C173" s="11" t="n">
-        <v>144</v>
+        <v>199</v>
       </c>
     </row>
     <row r="174" ht="11" customHeight="true" outlineLevel="3">
@@ -2619,7 +2727,7 @@
         <v>173</v>
       </c>
       <c r="C174" s="11" t="n">
-        <v>194</v>
+        <v>326</v>
       </c>
     </row>
     <row r="175" ht="11" customHeight="true" outlineLevel="3">
@@ -2627,7 +2735,7 @@
         <v>174</v>
       </c>
       <c r="C175" s="11" t="n">
-        <v>322</v>
+        <v>246</v>
       </c>
     </row>
     <row r="176" ht="11" customHeight="true" outlineLevel="3">
@@ -2635,7 +2743,7 @@
         <v>175</v>
       </c>
       <c r="C176" s="11" t="n">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="177" ht="11" customHeight="true" outlineLevel="3">
@@ -2643,15 +2751,15 @@
         <v>176</v>
       </c>
       <c r="C177" s="11" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="178" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B178" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="178" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B178" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="C178" s="12" t="n">
-        <v>1270</v>
+      <c r="C178" s="11" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="179" ht="11" customHeight="true" outlineLevel="3">
@@ -2659,7 +2767,7 @@
         <v>178</v>
       </c>
       <c r="C179" s="11" t="n">
-        <v>160</v>
+        <v>84</v>
       </c>
     </row>
     <row r="180" ht="11" customHeight="true" outlineLevel="3">
@@ -2667,7 +2775,7 @@
         <v>179</v>
       </c>
       <c r="C180" s="11" t="n">
-        <v>10</v>
+        <v>262</v>
       </c>
     </row>
     <row r="181" ht="11" customHeight="true" outlineLevel="3">
@@ -2675,7 +2783,7 @@
         <v>180</v>
       </c>
       <c r="C181" s="11" t="n">
-        <v>198</v>
+        <v>15</v>
       </c>
     </row>
     <row r="182" ht="11" customHeight="true" outlineLevel="3">
@@ -2683,7 +2791,7 @@
         <v>181</v>
       </c>
       <c r="C182" s="11" t="n">
-        <v>47</v>
+        <v>177</v>
       </c>
     </row>
     <row r="183" ht="11" customHeight="true" outlineLevel="3">
@@ -2691,7 +2799,7 @@
         <v>182</v>
       </c>
       <c r="C183" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" ht="11" customHeight="true" outlineLevel="3">
@@ -2699,7 +2807,7 @@
         <v>183</v>
       </c>
       <c r="C184" s="11" t="n">
-        <v>41</v>
+        <v>432</v>
       </c>
     </row>
     <row r="185" ht="11" customHeight="true" outlineLevel="3">
@@ -2707,7 +2815,7 @@
         <v>184</v>
       </c>
       <c r="C185" s="11" t="n">
-        <v>186</v>
+        <v>425</v>
       </c>
     </row>
     <row r="186" ht="11" customHeight="true" outlineLevel="3">
@@ -2715,7 +2823,7 @@
         <v>185</v>
       </c>
       <c r="C186" s="11" t="n">
-        <v>243</v>
+        <v>279</v>
       </c>
     </row>
     <row r="187" ht="11" customHeight="true" outlineLevel="3">
@@ -2723,7 +2831,7 @@
         <v>186</v>
       </c>
       <c r="C187" s="11" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="188" ht="11" customHeight="true" outlineLevel="3">
@@ -2731,7 +2839,7 @@
         <v>187</v>
       </c>
       <c r="C188" s="11" t="n">
-        <v>67</v>
+        <v>375</v>
       </c>
     </row>
     <row r="189" ht="11" customHeight="true" outlineLevel="3">
@@ -2739,7 +2847,7 @@
         <v>188</v>
       </c>
       <c r="C189" s="11" t="n">
-        <v>14</v>
+        <v>178</v>
       </c>
     </row>
     <row r="190" ht="11" customHeight="true" outlineLevel="3">
@@ -2747,7 +2855,7 @@
         <v>189</v>
       </c>
       <c r="C190" s="11" t="n">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191" ht="11" customHeight="true" outlineLevel="3">
@@ -2755,7 +2863,7 @@
         <v>190</v>
       </c>
       <c r="C191" s="11" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="192" ht="11" customHeight="true" outlineLevel="3">
@@ -2763,23 +2871,23 @@
         <v>191</v>
       </c>
       <c r="C192" s="11" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="193" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B193" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="193" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B193" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="C193" s="12" t="n">
-        <v>6249</v>
-      </c>
-    </row>
-    <row r="194" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C193" s="11" t="n">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="194" ht="11" customHeight="true" outlineLevel="3">
       <c r="B194" s="15" t="s">
         <v>193</v>
       </c>
       <c r="C194" s="11" t="n">
-        <v>62</v>
+        <v>412</v>
       </c>
     </row>
     <row r="195" ht="11" customHeight="true" outlineLevel="3">
@@ -2787,7 +2895,7 @@
         <v>194</v>
       </c>
       <c r="C195" s="11" t="n">
-        <v>32</v>
+        <v>352</v>
       </c>
     </row>
     <row r="196" ht="11" customHeight="true" outlineLevel="3">
@@ -2795,7 +2903,7 @@
         <v>195</v>
       </c>
       <c r="C196" s="11" t="n">
-        <v>150</v>
+        <v>490</v>
       </c>
     </row>
     <row r="197" ht="11" customHeight="true" outlineLevel="3">
@@ -2803,7 +2911,7 @@
         <v>196</v>
       </c>
       <c r="C197" s="11" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
     </row>
     <row r="198" ht="11" customHeight="true" outlineLevel="3">
@@ -2811,71 +2919,71 @@
         <v>197</v>
       </c>
       <c r="C198" s="11" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="199" ht="22" customHeight="true" outlineLevel="3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="199" ht="11" customHeight="true" outlineLevel="3">
       <c r="B199" s="15" t="s">
         <v>198</v>
       </c>
       <c r="C199" s="11" t="n">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="200" ht="22" customHeight="true" outlineLevel="3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="200" ht="11" customHeight="true" outlineLevel="3">
       <c r="B200" s="15" t="s">
         <v>199</v>
       </c>
       <c r="C200" s="11" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="201" ht="22" customHeight="true" outlineLevel="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="201" ht="11" customHeight="true" outlineLevel="3">
       <c r="B201" s="15" t="s">
         <v>200</v>
       </c>
       <c r="C201" s="11" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="202" ht="22" customHeight="true" outlineLevel="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="202" ht="11" customHeight="true" outlineLevel="3">
       <c r="B202" s="15" t="s">
         <v>201</v>
       </c>
       <c r="C202" s="11" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="203" ht="22" customHeight="true" outlineLevel="3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="203" ht="11" customHeight="true" outlineLevel="3">
       <c r="B203" s="15" t="s">
         <v>202</v>
       </c>
       <c r="C203" s="11" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="204" ht="22" customHeight="true" outlineLevel="3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="204" ht="11" customHeight="true" outlineLevel="3">
       <c r="B204" s="15" t="s">
         <v>203</v>
       </c>
       <c r="C204" s="11" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="205" ht="22" customHeight="true" outlineLevel="3">
-      <c r="B205" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="205" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B205" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="C205" s="11" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="206" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C205" s="17" t="n">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="206" ht="11" customHeight="true" outlineLevel="3">
       <c r="B206" s="15" t="s">
         <v>205</v>
       </c>
       <c r="C206" s="11" t="n">
-        <v>40</v>
+        <v>155</v>
       </c>
     </row>
     <row r="207" ht="11" customHeight="true" outlineLevel="3">
@@ -2883,7 +2991,7 @@
         <v>206</v>
       </c>
       <c r="C207" s="11" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" ht="11" customHeight="true" outlineLevel="3">
@@ -2891,7 +2999,7 @@
         <v>207</v>
       </c>
       <c r="C208" s="11" t="n">
-        <v>136</v>
+        <v>192</v>
       </c>
     </row>
     <row r="209" ht="11" customHeight="true" outlineLevel="3">
@@ -2899,7 +3007,7 @@
         <v>208</v>
       </c>
       <c r="C209" s="11" t="n">
-        <v>126</v>
+        <v>46</v>
       </c>
     </row>
     <row r="210" ht="11" customHeight="true" outlineLevel="3">
@@ -2907,7 +3015,7 @@
         <v>209</v>
       </c>
       <c r="C210" s="11" t="n">
-        <v>512</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" ht="11" customHeight="true" outlineLevel="3">
@@ -2915,7 +3023,7 @@
         <v>210</v>
       </c>
       <c r="C211" s="11" t="n">
-        <v>640</v>
+        <v>41</v>
       </c>
     </row>
     <row r="212" ht="11" customHeight="true" outlineLevel="3">
@@ -2923,7 +3031,7 @@
         <v>211</v>
       </c>
       <c r="C212" s="11" t="n">
-        <v>291</v>
+        <v>176</v>
       </c>
     </row>
     <row r="213" ht="11" customHeight="true" outlineLevel="3">
@@ -2931,7 +3039,7 @@
         <v>212</v>
       </c>
       <c r="C213" s="11" t="n">
-        <v>560</v>
+        <v>235</v>
       </c>
     </row>
     <row r="214" ht="11" customHeight="true" outlineLevel="3">
@@ -2939,7 +3047,7 @@
         <v>213</v>
       </c>
       <c r="C214" s="11" t="n">
-        <v>35</v>
+        <v>74</v>
       </c>
     </row>
     <row r="215" ht="11" customHeight="true" outlineLevel="3">
@@ -2947,15 +3055,15 @@
         <v>214</v>
       </c>
       <c r="C215" s="11" t="n">
-        <v>280</v>
+        <v>-239</v>
       </c>
     </row>
     <row r="216" ht="11" customHeight="true" outlineLevel="3">
       <c r="B216" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="C216" s="16" t="n">
-        <v>1184</v>
+      <c r="C216" s="11" t="n">
+        <v>-241</v>
       </c>
     </row>
     <row r="217" ht="11" customHeight="true" outlineLevel="3">
@@ -2963,7 +3071,7 @@
         <v>216</v>
       </c>
       <c r="C217" s="11" t="n">
-        <v>516</v>
+        <v>86</v>
       </c>
     </row>
     <row r="218" ht="11" customHeight="true" outlineLevel="3">
@@ -2971,31 +3079,31 @@
         <v>217</v>
       </c>
       <c r="C218" s="11" t="n">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="219" ht="22" customHeight="true" outlineLevel="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" ht="11" customHeight="true" outlineLevel="3">
       <c r="B219" s="15" t="s">
         <v>218</v>
       </c>
       <c r="C219" s="11" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="220" ht="22" customHeight="true" outlineLevel="3">
-      <c r="B220" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="220" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B220" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C220" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C220" s="12" t="n">
+        <v>4597</v>
+      </c>
+    </row>
+    <row r="221" ht="22" customHeight="true" outlineLevel="3">
       <c r="B221" s="15" t="s">
         <v>220</v>
       </c>
       <c r="C221" s="11" t="n">
-        <v>15</v>
+        <v>59</v>
       </c>
     </row>
     <row r="222" ht="11" customHeight="true" outlineLevel="3">
@@ -3003,15 +3111,15 @@
         <v>221</v>
       </c>
       <c r="C222" s="11" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="223" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B223" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="223" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B223" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="C223" s="12" t="n">
-        <v>10546</v>
+      <c r="C223" s="11" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="224" ht="11" customHeight="true" outlineLevel="3">
@@ -3019,7 +3127,7 @@
         <v>223</v>
       </c>
       <c r="C224" s="11" t="n">
-        <v>336</v>
+        <v>195</v>
       </c>
     </row>
     <row r="225" ht="11" customHeight="true" outlineLevel="3">
@@ -3027,7 +3135,7 @@
         <v>224</v>
       </c>
       <c r="C225" s="11" t="n">
-        <v>385</v>
+        <v>174</v>
       </c>
     </row>
     <row r="226" ht="11" customHeight="true" outlineLevel="3">
@@ -3035,7 +3143,7 @@
         <v>225</v>
       </c>
       <c r="C226" s="11" t="n">
-        <v>584</v>
+        <v>182</v>
       </c>
     </row>
     <row r="227" ht="11" customHeight="true" outlineLevel="3">
@@ -3043,79 +3151,79 @@
         <v>226</v>
       </c>
       <c r="C227" s="11" t="n">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="228" ht="11" customHeight="true" outlineLevel="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="228" ht="22" customHeight="true" outlineLevel="3">
       <c r="B228" s="15" t="s">
         <v>227</v>
       </c>
       <c r="C228" s="11" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="229" ht="11" customHeight="true" outlineLevel="3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="229" ht="22" customHeight="true" outlineLevel="3">
       <c r="B229" s="15" t="s">
         <v>228</v>
       </c>
       <c r="C229" s="11" t="n">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="230" ht="11" customHeight="true" outlineLevel="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="230" ht="22" customHeight="true" outlineLevel="3">
       <c r="B230" s="15" t="s">
         <v>229</v>
       </c>
       <c r="C230" s="11" t="n">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="231" ht="11" customHeight="true" outlineLevel="3">
+        <v>-384</v>
+      </c>
+    </row>
+    <row r="231" ht="22" customHeight="true" outlineLevel="3">
       <c r="B231" s="15" t="s">
         <v>230</v>
       </c>
       <c r="C231" s="11" t="n">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="232" ht="11" customHeight="true" outlineLevel="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="232" ht="22" customHeight="true" outlineLevel="3">
       <c r="B232" s="15" t="s">
         <v>231</v>
       </c>
       <c r="C232" s="11" t="n">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="233" ht="11" customHeight="true" outlineLevel="3">
+        <v>-266</v>
+      </c>
+    </row>
+    <row r="233" ht="22" customHeight="true" outlineLevel="3">
       <c r="B233" s="15" t="s">
         <v>232</v>
       </c>
       <c r="C233" s="11" t="n">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="234" ht="11" customHeight="true" outlineLevel="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="234" ht="22" customHeight="true" outlineLevel="3">
       <c r="B234" s="15" t="s">
         <v>233</v>
       </c>
       <c r="C234" s="11" t="n">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="235" ht="11" customHeight="true" outlineLevel="3">
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="235" ht="22" customHeight="true" outlineLevel="3">
       <c r="B235" s="15" t="s">
         <v>234</v>
       </c>
       <c r="C235" s="11" t="n">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="236" ht="11" customHeight="true" outlineLevel="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="236" ht="22" customHeight="true" outlineLevel="3">
       <c r="B236" s="15" t="s">
         <v>235</v>
       </c>
       <c r="C236" s="11" t="n">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="237" ht="11" customHeight="true" outlineLevel="3">
@@ -3123,7 +3231,7 @@
         <v>236</v>
       </c>
       <c r="C237" s="11" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="238" ht="11" customHeight="true" outlineLevel="3">
@@ -3131,7 +3239,7 @@
         <v>237</v>
       </c>
       <c r="C238" s="11" t="n">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="239" ht="11" customHeight="true" outlineLevel="3">
@@ -3139,7 +3247,7 @@
         <v>238</v>
       </c>
       <c r="C239" s="11" t="n">
-        <v>91</v>
+        <v>35</v>
       </c>
     </row>
     <row r="240" ht="11" customHeight="true" outlineLevel="3">
@@ -3147,15 +3255,15 @@
         <v>239</v>
       </c>
       <c r="C240" s="11" t="n">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="241" ht="22" customHeight="true" outlineLevel="3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="241" ht="11" customHeight="true" outlineLevel="3">
       <c r="B241" s="15" t="s">
         <v>240</v>
       </c>
       <c r="C241" s="11" t="n">
-        <v>7</v>
+        <v>123</v>
       </c>
     </row>
     <row r="242" ht="11" customHeight="true" outlineLevel="3">
@@ -3163,15 +3271,15 @@
         <v>241</v>
       </c>
       <c r="C242" s="11" t="n">
-        <v>106</v>
+        <v>482</v>
       </c>
     </row>
     <row r="243" ht="11" customHeight="true" outlineLevel="3">
       <c r="B243" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="C243" s="16" t="n">
-        <v>3370</v>
+      <c r="C243" s="11" t="n">
+        <v>602</v>
       </c>
     </row>
     <row r="244" ht="11" customHeight="true" outlineLevel="3">
@@ -3179,15 +3287,15 @@
         <v>243</v>
       </c>
       <c r="C244" s="11" t="n">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="245" ht="11" customHeight="true" outlineLevel="3">
       <c r="B245" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="C245" s="16" t="n">
-        <v>2091</v>
+      <c r="C245" s="11" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="246" ht="11" customHeight="true" outlineLevel="3">
@@ -3195,7 +3303,7 @@
         <v>245</v>
       </c>
       <c r="C246" s="11" t="n">
-        <v>557</v>
+        <v>493</v>
       </c>
     </row>
     <row r="247" ht="11" customHeight="true" outlineLevel="3">
@@ -3203,15 +3311,15 @@
         <v>246</v>
       </c>
       <c r="C247" s="11" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="248" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B248" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="248" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B248" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="C248" s="17" t="n">
-        <v>143</v>
+      <c r="C248" s="11" t="n">
+        <v>302</v>
       </c>
     </row>
     <row r="249" ht="11" customHeight="true" outlineLevel="3">
@@ -3219,7 +3327,7 @@
         <v>248</v>
       </c>
       <c r="C249" s="11" t="n">
-        <v>25</v>
+        <v>579</v>
       </c>
     </row>
     <row r="250" ht="11" customHeight="true" outlineLevel="3">
@@ -3227,15 +3335,15 @@
         <v>249</v>
       </c>
       <c r="C250" s="11" t="n">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="251" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B251" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="251" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B251" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="C251" s="12" t="n">
-        <v>66523</v>
+      <c r="C251" s="11" t="n">
+        <v>401</v>
       </c>
     </row>
     <row r="252" ht="11" customHeight="true" outlineLevel="3">
@@ -3243,95 +3351,95 @@
         <v>251</v>
       </c>
       <c r="C252" s="11" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="253" ht="11" customHeight="true" outlineLevel="3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="253" ht="22" customHeight="true" outlineLevel="3">
       <c r="B253" s="15" t="s">
         <v>252</v>
       </c>
       <c r="C253" s="11" t="n">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="254" ht="11" customHeight="true" outlineLevel="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="254" ht="22" customHeight="true" outlineLevel="3">
       <c r="B254" s="15" t="s">
         <v>253</v>
       </c>
       <c r="C254" s="11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="255" ht="22" customHeight="true" outlineLevel="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" ht="11" customHeight="true" outlineLevel="3">
       <c r="B255" s="15" t="s">
         <v>254</v>
       </c>
       <c r="C255" s="11" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="256" ht="22" customHeight="true" outlineLevel="3">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="256" ht="11" customHeight="true" outlineLevel="3">
       <c r="B256" s="15" t="s">
         <v>255</v>
       </c>
       <c r="C256" s="11" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="257" ht="22" customHeight="true" outlineLevel="3">
-      <c r="B257" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="257" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B257" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="C257" s="16" t="n">
-        <v>5584</v>
-      </c>
-    </row>
-    <row r="258" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C257" s="12" t="n">
+        <v>9293</v>
+      </c>
+    </row>
+    <row r="258" ht="11" customHeight="true" outlineLevel="3">
       <c r="B258" s="15" t="s">
         <v>257</v>
       </c>
       <c r="C258" s="11" t="n">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="259" ht="22" customHeight="true" outlineLevel="3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="259" ht="11" customHeight="true" outlineLevel="3">
       <c r="B259" s="15" t="s">
         <v>258</v>
       </c>
       <c r="C259" s="11" t="n">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="260" ht="22" customHeight="true" outlineLevel="3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="260" ht="11" customHeight="true" outlineLevel="3">
       <c r="B260" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="C260" s="16" t="n">
-        <v>5870</v>
-      </c>
-    </row>
-    <row r="261" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C260" s="11" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="261" ht="11" customHeight="true" outlineLevel="3">
       <c r="B261" s="15" t="s">
         <v>260</v>
       </c>
       <c r="C261" s="11" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="262" ht="22" customHeight="true" outlineLevel="3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="262" ht="11" customHeight="true" outlineLevel="3">
       <c r="B262" s="15" t="s">
         <v>261</v>
       </c>
       <c r="C262" s="11" t="n">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="263" ht="22" customHeight="true" outlineLevel="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="263" ht="11" customHeight="true" outlineLevel="3">
       <c r="B263" s="15" t="s">
         <v>262</v>
       </c>
       <c r="C263" s="11" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
     </row>
     <row r="264" ht="11" customHeight="true" outlineLevel="3">
@@ -3339,7 +3447,7 @@
         <v>263</v>
       </c>
       <c r="C264" s="11" t="n">
-        <v>72</v>
+        <v>235</v>
       </c>
     </row>
     <row r="265" ht="11" customHeight="true" outlineLevel="3">
@@ -3347,7 +3455,7 @@
         <v>264</v>
       </c>
       <c r="C265" s="11" t="n">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="266" ht="11" customHeight="true" outlineLevel="3">
@@ -3355,7 +3463,7 @@
         <v>265</v>
       </c>
       <c r="C266" s="11" t="n">
-        <v>283</v>
+        <v>451</v>
       </c>
     </row>
     <row r="267" ht="11" customHeight="true" outlineLevel="3">
@@ -3363,7 +3471,7 @@
         <v>266</v>
       </c>
       <c r="C267" s="11" t="n">
-        <v>25</v>
+        <v>126</v>
       </c>
     </row>
     <row r="268" ht="11" customHeight="true" outlineLevel="3">
@@ -3371,55 +3479,55 @@
         <v>267</v>
       </c>
       <c r="C268" s="11" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="269" ht="22" customHeight="true" outlineLevel="3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="269" ht="11" customHeight="true" outlineLevel="3">
       <c r="B269" s="15" t="s">
         <v>268</v>
       </c>
       <c r="C269" s="11" t="n">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="270" ht="22" customHeight="true" outlineLevel="3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="270" ht="11" customHeight="true" outlineLevel="3">
       <c r="B270" s="15" t="s">
         <v>269</v>
       </c>
       <c r="C270" s="11" t="n">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="271" ht="22" customHeight="true" outlineLevel="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="271" ht="11" customHeight="true" outlineLevel="3">
       <c r="B271" s="15" t="s">
         <v>270</v>
       </c>
       <c r="C271" s="11" t="n">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="272" ht="22" customHeight="true" outlineLevel="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="272" ht="11" customHeight="true" outlineLevel="3">
       <c r="B272" s="15" t="s">
         <v>271</v>
       </c>
       <c r="C272" s="11" t="n">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="273" ht="22" customHeight="true" outlineLevel="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="273" ht="11" customHeight="true" outlineLevel="3">
       <c r="B273" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="C273" s="16" t="n">
-        <v>11083</v>
-      </c>
-    </row>
-    <row r="274" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C273" s="11" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="274" ht="11" customHeight="true" outlineLevel="3">
       <c r="B274" s="15" t="s">
         <v>273</v>
       </c>
       <c r="C274" s="11" t="n">
-        <v>86</v>
+        <v>131</v>
       </c>
     </row>
     <row r="275" ht="22" customHeight="true" outlineLevel="3">
@@ -3427,103 +3535,103 @@
         <v>274</v>
       </c>
       <c r="C275" s="11" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="276" ht="22" customHeight="true" outlineLevel="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276" ht="11" customHeight="true" outlineLevel="3">
       <c r="B276" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="C276" s="16" t="n">
-        <v>3156</v>
-      </c>
-    </row>
-    <row r="277" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C276" s="11" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="277" ht="11" customHeight="true" outlineLevel="3">
       <c r="B277" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="C277" s="11" t="n">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="278" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C277" s="16" t="n">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="278" ht="11" customHeight="true" outlineLevel="3">
       <c r="B278" s="15" t="s">
         <v>277</v>
       </c>
       <c r="C278" s="11" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="279" ht="22" customHeight="true" outlineLevel="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="279" ht="11" customHeight="true" outlineLevel="3">
       <c r="B279" s="15" t="s">
         <v>278</v>
       </c>
       <c r="C279" s="16" t="n">
-        <v>7869</v>
-      </c>
-    </row>
-    <row r="280" ht="22" customHeight="true" outlineLevel="3">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="280" ht="11" customHeight="true" outlineLevel="3">
       <c r="B280" s="15" t="s">
         <v>279</v>
       </c>
       <c r="C280" s="11" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="281" ht="22" customHeight="true" outlineLevel="3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="281" ht="11" customHeight="true" outlineLevel="3">
       <c r="B281" s="15" t="s">
         <v>280</v>
       </c>
       <c r="C281" s="11" t="n">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="282" ht="22" customHeight="true" outlineLevel="3">
-      <c r="B282" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="282" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B282" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="C282" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C282" s="17" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="283" ht="11" customHeight="true" outlineLevel="3">
       <c r="B283" s="15" t="s">
         <v>282</v>
       </c>
       <c r="C283" s="11" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="284" ht="22" customHeight="true" outlineLevel="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="284" ht="11" customHeight="true" outlineLevel="3">
       <c r="B284" s="15" t="s">
         <v>283</v>
       </c>
       <c r="C284" s="11" t="n">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="285" ht="22" customHeight="true" outlineLevel="3">
-      <c r="B285" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="285" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B285" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="C285" s="16" t="n">
-        <v>1858</v>
-      </c>
-    </row>
-    <row r="286" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C285" s="12" t="n">
+        <v>61080</v>
+      </c>
+    </row>
+    <row r="286" ht="11" customHeight="true" outlineLevel="3">
       <c r="B286" s="15" t="s">
         <v>285</v>
       </c>
       <c r="C286" s="11" t="n">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="287" ht="22" customHeight="true" outlineLevel="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="287" ht="11" customHeight="true" outlineLevel="3">
       <c r="B287" s="15" t="s">
         <v>286</v>
       </c>
       <c r="C287" s="11" t="n">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="288" ht="11" customHeight="true" outlineLevel="3">
@@ -3531,39 +3639,39 @@
         <v>287</v>
       </c>
       <c r="C288" s="11" t="n">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="289" ht="11" customHeight="true" outlineLevel="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" ht="22" customHeight="true" outlineLevel="3">
       <c r="B289" s="15" t="s">
         <v>288</v>
       </c>
       <c r="C289" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="290" ht="11" customHeight="true" outlineLevel="3">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="290" ht="22" customHeight="true" outlineLevel="3">
       <c r="B290" s="15" t="s">
         <v>289</v>
       </c>
       <c r="C290" s="11" t="n">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="291" ht="11" customHeight="true" outlineLevel="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="291" ht="22" customHeight="true" outlineLevel="3">
       <c r="B291" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C291" s="11" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="292" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C291" s="16" t="n">
+        <v>5512</v>
+      </c>
+    </row>
+    <row r="292" ht="22" customHeight="true" outlineLevel="3">
       <c r="B292" s="15" t="s">
         <v>291</v>
       </c>
       <c r="C292" s="11" t="n">
-        <v>398</v>
+        <v>181</v>
       </c>
     </row>
     <row r="293" ht="22" customHeight="true" outlineLevel="3">
@@ -3571,15 +3679,15 @@
         <v>292</v>
       </c>
       <c r="C293" s="11" t="n">
-        <v>284</v>
+        <v>245</v>
       </c>
     </row>
     <row r="294" ht="22" customHeight="true" outlineLevel="3">
       <c r="B294" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="C294" s="11" t="n">
-        <v>298</v>
+      <c r="C294" s="16" t="n">
+        <v>5740</v>
       </c>
     </row>
     <row r="295" ht="22" customHeight="true" outlineLevel="3">
@@ -3587,7 +3695,7 @@
         <v>294</v>
       </c>
       <c r="C295" s="11" t="n">
-        <v>188</v>
+        <v>73</v>
       </c>
     </row>
     <row r="296" ht="22" customHeight="true" outlineLevel="3">
@@ -3595,7 +3703,7 @@
         <v>295</v>
       </c>
       <c r="C296" s="11" t="n">
-        <v>77</v>
+        <v>144</v>
       </c>
     </row>
     <row r="297" ht="22" customHeight="true" outlineLevel="3">
@@ -3603,31 +3711,31 @@
         <v>296</v>
       </c>
       <c r="C297" s="11" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="298" ht="22" customHeight="true" outlineLevel="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" ht="11" customHeight="true" outlineLevel="3">
       <c r="B298" s="15" t="s">
         <v>297</v>
       </c>
       <c r="C298" s="11" t="n">
-        <v>726</v>
+        <v>70</v>
       </c>
     </row>
     <row r="299" ht="11" customHeight="true" outlineLevel="3">
       <c r="B299" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="C299" s="16" t="n">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="300" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C299" s="11" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="300" ht="11" customHeight="true" outlineLevel="3">
       <c r="B300" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="C300" s="16" t="n">
-        <v>3937</v>
+      <c r="C300" s="11" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="301" ht="11" customHeight="true" outlineLevel="3">
@@ -3635,7 +3743,7 @@
         <v>300</v>
       </c>
       <c r="C301" s="11" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="302" ht="11" customHeight="true" outlineLevel="3">
@@ -3643,7 +3751,7 @@
         <v>301</v>
       </c>
       <c r="C302" s="11" t="n">
-        <v>25</v>
+        <v>110</v>
       </c>
     </row>
     <row r="303" ht="22" customHeight="true" outlineLevel="3">
@@ -3651,7 +3759,7 @@
         <v>302</v>
       </c>
       <c r="C303" s="11" t="n">
-        <v>240</v>
+        <v>301</v>
       </c>
     </row>
     <row r="304" ht="22" customHeight="true" outlineLevel="3">
@@ -3659,95 +3767,95 @@
         <v>303</v>
       </c>
       <c r="C304" s="11" t="n">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="305" ht="11" customHeight="true" outlineLevel="3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="305" ht="22" customHeight="true" outlineLevel="3">
       <c r="B305" s="15" t="s">
         <v>304</v>
       </c>
       <c r="C305" s="11" t="n">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="306" ht="11" customHeight="true" outlineLevel="3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="306" ht="22" customHeight="true" outlineLevel="3">
       <c r="B306" s="15" t="s">
         <v>305</v>
       </c>
       <c r="C306" s="11" t="n">
-        <v>240</v>
+        <v>330</v>
       </c>
     </row>
     <row r="307" ht="22" customHeight="true" outlineLevel="3">
       <c r="B307" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="C307" s="11" t="n">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="308" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C307" s="16" t="n">
+        <v>11026</v>
+      </c>
+    </row>
+    <row r="308" ht="22" customHeight="true" outlineLevel="3">
       <c r="B308" s="15" t="s">
         <v>307</v>
       </c>
       <c r="C308" s="11" t="n">
-        <v>438</v>
+        <v>84</v>
       </c>
     </row>
     <row r="309" ht="22" customHeight="true" outlineLevel="3">
       <c r="B309" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="C309" s="16" t="n">
-        <v>3184</v>
-      </c>
-    </row>
-    <row r="310" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C309" s="11" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="310" ht="22" customHeight="true" outlineLevel="3">
       <c r="B310" s="15" t="s">
         <v>309</v>
       </c>
       <c r="C310" s="16" t="n">
-        <v>2059</v>
-      </c>
-    </row>
-    <row r="311" ht="11" customHeight="true" outlineLevel="3">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="311" ht="22" customHeight="true" outlineLevel="3">
       <c r="B311" s="15" t="s">
         <v>310</v>
       </c>
       <c r="C311" s="11" t="n">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="312" ht="11" customHeight="true" outlineLevel="3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="312" ht="22" customHeight="true" outlineLevel="3">
       <c r="B312" s="15" t="s">
         <v>311</v>
       </c>
       <c r="C312" s="11" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="313" ht="11" customHeight="true" outlineLevel="3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="313" ht="22" customHeight="true" outlineLevel="3">
       <c r="B313" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="C313" s="11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="314" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C313" s="16" t="n">
+        <v>7839</v>
+      </c>
+    </row>
+    <row r="314" ht="22" customHeight="true" outlineLevel="3">
       <c r="B314" s="15" t="s">
         <v>313</v>
       </c>
       <c r="C314" s="11" t="n">
-        <v>78</v>
+        <v>29</v>
       </c>
     </row>
     <row r="315" ht="22" customHeight="true" outlineLevel="3">
       <c r="B315" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="C315" s="16" t="n">
-        <v>1809</v>
+      <c r="C315" s="11" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="316" ht="22" customHeight="true" outlineLevel="3">
@@ -3755,7 +3863,7 @@
         <v>315</v>
       </c>
       <c r="C316" s="11" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" ht="22" customHeight="true" outlineLevel="3">
@@ -3763,39 +3871,39 @@
         <v>316</v>
       </c>
       <c r="C317" s="11" t="n">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="318" ht="11" customHeight="true" outlineLevel="3">
+        <v>-524</v>
+      </c>
+    </row>
+    <row r="318" ht="22" customHeight="true" outlineLevel="3">
       <c r="B318" s="15" t="s">
         <v>317</v>
       </c>
       <c r="C318" s="11" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="319" ht="11" customHeight="true" outlineLevel="3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="319" ht="22" customHeight="true" outlineLevel="3">
       <c r="B319" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="C319" s="11" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="320" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C319" s="16" t="n">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="320" ht="22" customHeight="true" outlineLevel="3">
       <c r="B320" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="C320" s="16" t="n">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="321" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C320" s="11" t="n">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="321" ht="22" customHeight="true" outlineLevel="3">
       <c r="B321" s="15" t="s">
         <v>320</v>
       </c>
       <c r="C321" s="11" t="n">
-        <v>98</v>
+        <v>156</v>
       </c>
     </row>
     <row r="322" ht="11" customHeight="true" outlineLevel="3">
@@ -3803,7 +3911,7 @@
         <v>321</v>
       </c>
       <c r="C322" s="11" t="n">
-        <v>25</v>
+        <v>236</v>
       </c>
     </row>
     <row r="323" ht="11" customHeight="true" outlineLevel="3">
@@ -3811,7 +3919,7 @@
         <v>322</v>
       </c>
       <c r="C323" s="11" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
     </row>
     <row r="324" ht="11" customHeight="true" outlineLevel="3">
@@ -3819,7 +3927,7 @@
         <v>323</v>
       </c>
       <c r="C324" s="11" t="n">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="325" ht="11" customHeight="true" outlineLevel="3">
@@ -3835,23 +3943,311 @@
         <v>325</v>
       </c>
       <c r="C326" s="11" t="n">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="327" ht="11" customHeight="true" outlineLevel="3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="327" ht="22" customHeight="true" outlineLevel="3">
       <c r="B327" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="C327" s="16" t="n">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="328" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C327" s="11" t="n">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="328" ht="22" customHeight="true" outlineLevel="3">
       <c r="B328" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="C328" s="16" t="n">
-        <v>2395</v>
+      <c r="C328" s="11" t="n">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="329" ht="22" customHeight="true" outlineLevel="3">
+      <c r="B329" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C329" s="11" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="330" ht="22" customHeight="true" outlineLevel="3">
+      <c r="B330" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C330" s="11" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="331" ht="22" customHeight="true" outlineLevel="3">
+      <c r="B331" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="C331" s="11" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="332" ht="22" customHeight="true" outlineLevel="3">
+      <c r="B332" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="C332" s="11" t="n">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="333" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B333" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="C333" s="16" t="n">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="334" ht="22" customHeight="true" outlineLevel="3">
+      <c r="B334" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="C334" s="16" t="n">
+        <v>3917</v>
+      </c>
+    </row>
+    <row r="335" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B335" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="C335" s="11" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="336" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B336" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="C336" s="11" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="337" ht="22" customHeight="true" outlineLevel="3">
+      <c r="B337" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="C337" s="11" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="338" ht="22" customHeight="true" outlineLevel="3">
+      <c r="B338" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="C338" s="11" t="n">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="339" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B339" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="C339" s="11" t="n">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="340" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B340" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="C340" s="11" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="341" ht="22" customHeight="true" outlineLevel="3">
+      <c r="B341" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="C341" s="11" t="n">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="342" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B342" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="C342" s="11" t="n">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="343" ht="22" customHeight="true" outlineLevel="3">
+      <c r="B343" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="C343" s="16" t="n">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="344" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B344" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="C344" s="16" t="n">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="345" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B345" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="C345" s="11" t="n">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="346" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B346" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="C346" s="11" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="347" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B347" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C347" s="11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B348" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="C348" s="11" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="349" ht="22" customHeight="true" outlineLevel="3">
+      <c r="B349" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="C349" s="16" t="n">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="350" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B350" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="C350" s="16" t="n">
+        <v>-1040</v>
+      </c>
+    </row>
+    <row r="351" ht="22" customHeight="true" outlineLevel="3">
+      <c r="B351" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="C351" s="11" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="352" ht="22" customHeight="true" outlineLevel="3">
+      <c r="B352" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C352" s="11" t="n">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="353" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B353" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C353" s="11" t="n">
+        <v>-689</v>
+      </c>
+    </row>
+    <row r="354" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B354" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C354" s="11" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="355" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B355" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="C355" s="16" t="n">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="356" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B356" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C356" s="11" t="n">
+        <v>-426</v>
+      </c>
+    </row>
+    <row r="357" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B357" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="C357" s="11" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="358" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B358" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="C358" s="11" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="359" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B359" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="C359" s="11" t="n">
+        <v>-509</v>
+      </c>
+    </row>
+    <row r="360" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B360" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="C360" s="11" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="361" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B361" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="C361" s="11" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="362" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B362" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="C362" s="11" t="n">
+        <v>-199</v>
+      </c>
+    </row>
+    <row r="363" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B363" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="C363" s="16" t="n">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="364" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B364" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="C364" s="16" t="n">
+        <v>2390</v>
       </c>
     </row>
   </sheetData>
